--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\training-assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAF1C0B-90ED-45D3-9659-87F91AD278FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Made you look.</t>
+  </si>
+  <si>
+    <t>Buy my book.</t>
+  </si>
+  <si>
+    <t>It's off the hook.</t>
+  </si>
+  <si>
+    <t>What shameless plug I took.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -56,7 +79,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F31E0D28-BA72-4AB5-9F7B-FA348412ACF9}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -66,6 +91,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409074</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>145611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{373B91E5-5C87-464A-9C06-807F8E319E30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1851660" y="0"/>
+          <a:ext cx="2215014" cy="2912874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +410,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>